--- a/data/trans_orig/P16B02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A328D23-DD98-47FC-ACE9-6E46DFEE4C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4B0DC25-1203-4710-96A2-A306254D1998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EE6C609D-BE15-40D5-BFAF-CD0B97A1BF91}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3F5DF707-9BF2-401F-A533-86864F220C2D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
   <si>
     <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2007 (Tasa respuesta: 18,98%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>86,59%</t>
   </si>
   <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
   </si>
   <si>
     <t>89,47%</t>
   </si>
   <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
   </si>
   <si>
     <t>88,57%</t>
   </si>
   <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>13,41%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
   </si>
   <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>72,82%</t>
   </si>
   <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
   </si>
   <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
   </si>
   <si>
     <t>76,04%</t>
   </si>
   <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
   </si>
   <si>
     <t>27,18%</t>
   </si>
   <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,103 +196,109 @@
     <t>65,26%</t>
   </si>
   <si>
-    <t>52,9%</t>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
   </si>
   <si>
     <t>75,52%</t>
   </si>
   <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
   </si>
   <si>
     <t>71,37%</t>
   </si>
   <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
   </si>
   <si>
     <t>34,74%</t>
   </si>
   <si>
-    <t>47,1%</t>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
   </si>
   <si>
     <t>24,48%</t>
   </si>
   <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
   </si>
   <si>
     <t>28,63%</t>
   </si>
   <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
   </si>
   <si>
     <t>77,58%</t>
   </si>
   <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
   </si>
   <si>
     <t>83,79%</t>
   </si>
   <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
   </si>
   <si>
     <t>81,55%</t>
   </si>
   <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
   </si>
   <si>
     <t>22,42%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
   </si>
   <si>
     <t>18,45%</t>
   </si>
   <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -304,217 +310,211 @@
     <t>87,06%</t>
   </si>
   <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
   </si>
   <si>
     <t>89,33%</t>
   </si>
   <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
   </si>
   <si>
     <t>88,64%</t>
   </si>
   <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
   </si>
   <si>
     <t>10,67%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
   </si>
   <si>
     <t>11,36%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>70,23%</t>
   </si>
   <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
   </si>
   <si>
     <t>73,26%</t>
   </si>
   <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
   </si>
   <si>
     <t>72,11%</t>
   </si>
   <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
   </si>
   <si>
     <t>29,77%</t>
   </si>
   <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
   </si>
   <si>
     <t>26,74%</t>
   </si>
   <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
   </si>
   <si>
     <t>27,89%</t>
   </si>
   <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
   </si>
   <si>
     <t>61,95%</t>
   </si>
   <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
   </si>
   <si>
     <t>60,22%</t>
   </si>
   <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
   </si>
   <si>
     <t>60,72%</t>
   </si>
   <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
   </si>
   <si>
     <t>38,05%</t>
   </si>
   <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
   </si>
   <si>
     <t>39,78%</t>
   </si>
   <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
   </si>
   <si>
     <t>39,28%</t>
   </si>
   <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
   </si>
   <si>
     <t>76,23%</t>
   </si>
   <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
   </si>
   <si>
     <t>79,31%</t>
   </si>
   <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
   </si>
   <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
+    <t>76,18%</t>
   </si>
   <si>
     <t>23,77%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
   </si>
   <si>
     <t>20,69%</t>
   </si>
   <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
   </si>
   <si>
     <t>21,74%</t>
   </si>
   <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>23,82%</t>
   </si>
   <si>
     <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2015 (Tasa respuesta: 24,33%)</t>
@@ -523,217 +523,211 @@
     <t>81,66%</t>
   </si>
   <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
   </si>
   <si>
     <t>88,99%</t>
   </si>
   <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>86,76%</t>
   </si>
   <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
   </si>
   <si>
     <t>18,34%</t>
   </si>
   <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
   </si>
   <si>
     <t>11,01%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
   </si>
   <si>
     <t>13,24%</t>
   </si>
   <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
   </si>
   <si>
     <t>63,5%</t>
   </si>
   <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
   </si>
   <si>
     <t>70,25%</t>
   </si>
   <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
   </si>
   <si>
     <t>67,57%</t>
   </si>
   <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
   </si>
   <si>
     <t>36,5%</t>
   </si>
   <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
   </si>
   <si>
     <t>29,75%</t>
   </si>
   <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
   </si>
   <si>
     <t>32,43%</t>
   </si>
   <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
   </si>
   <si>
     <t>51,92%</t>
   </si>
   <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
   </si>
   <si>
     <t>56,09%</t>
   </si>
   <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
   </si>
   <si>
     <t>54,37%</t>
   </si>
   <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
   </si>
   <si>
     <t>48,08%</t>
   </si>
   <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
   </si>
   <si>
     <t>43,91%</t>
   </si>
   <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
   </si>
   <si>
     <t>45,63%</t>
   </si>
   <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
   </si>
   <si>
     <t>66,84%</t>
   </si>
   <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
   </si>
   <si>
     <t>75,5%</t>
   </si>
   <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
+    <t>72,87%</t>
   </si>
   <si>
     <t>72,32%</t>
   </si>
   <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
   </si>
   <si>
     <t>33,16%</t>
   </si>
   <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
   </si>
   <si>
     <t>24,5%</t>
   </si>
   <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
+    <t>27,13%</t>
   </si>
   <si>
     <t>27,68%</t>
   </si>
   <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB1411A-43CF-4A3C-B26D-D6BEF08B0888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40E0050-7D38-410C-BC83-F501CB043541}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1585,7 +1579,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -1594,13 +1588,13 @@
         <v>68850</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -1609,13 +1603,13 @@
         <v>109250</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,13 +1624,13 @@
         <v>21509</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -1645,13 +1639,13 @@
         <v>22320</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>44</v>
@@ -1660,13 +1654,13 @@
         <v>43828</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1734,13 +1728,13 @@
         <v>349926</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>650</v>
@@ -1749,28 +1743,28 @@
         <v>670954</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1008</v>
       </c>
       <c r="N13" s="7">
-        <v>1020879</v>
+        <v>1020880</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1779,13 @@
         <v>101108</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>127</v>
@@ -1800,13 +1794,13 @@
         <v>129804</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>228</v>
@@ -1815,13 +1809,13 @@
         <v>230912</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1863,7 +1857,7 @@
         <v>1236</v>
       </c>
       <c r="N15" s="7">
-        <v>1251791</v>
+        <v>1251792</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1877,7 +1871,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +1890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C625326-2670-4E8D-BDBF-BE72C7C454B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CCEE03-A53B-4E32-A956-6893492FDAC3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1913,7 +1907,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2020,13 +2014,13 @@
         <v>209506</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>455</v>
@@ -2035,13 +2029,13 @@
         <v>487190</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>647</v>
@@ -2050,13 +2044,13 @@
         <v>696696</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2065,13 @@
         <v>31140</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>54</v>
@@ -2086,13 +2080,13 @@
         <v>58183</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>84</v>
@@ -2101,13 +2095,13 @@
         <v>89323</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,13 +2169,13 @@
         <v>222232</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>347</v>
@@ -2190,13 +2184,13 @@
         <v>378515</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>554</v>
@@ -2205,13 +2199,13 @@
         <v>600747</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,13 +2220,13 @@
         <v>94200</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>130</v>
@@ -2241,13 +2235,13 @@
         <v>138170</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>218</v>
@@ -2256,13 +2250,13 @@
         <v>232370</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,13 +2324,13 @@
         <v>30788</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
@@ -2345,13 +2339,13 @@
         <v>73918</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -2360,13 +2354,13 @@
         <v>104706</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,13 +2375,13 @@
         <v>18914</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -2396,13 +2390,13 @@
         <v>48827</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -2411,13 +2405,13 @@
         <v>67741</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2479,13 @@
         <v>462526</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>867</v>
@@ -2500,13 +2494,13 @@
         <v>939624</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1294</v>
@@ -2515,13 +2509,13 @@
         <v>1402149</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2530,13 @@
         <v>144255</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>228</v>
@@ -2551,13 +2545,13 @@
         <v>245179</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>365</v>
@@ -2566,10 +2560,10 @@
         <v>389434</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>158</v>
@@ -2628,7 +2622,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2647,7 +2641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A570048-36F0-45E5-8092-E811575A4370}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FCB972-7586-4098-A642-1D1306DB5EDE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3257,7 +3251,7 @@
         <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="M13" s="7">
         <v>1148</v>
@@ -3266,13 +3260,13 @@
         <v>1234857</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3281,13 @@
         <v>208143</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>250</v>
@@ -3302,13 +3296,13 @@
         <v>264524</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>444</v>
@@ -3317,13 +3311,13 @@
         <v>472667</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,7 +3373,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B02-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4B0DC25-1203-4710-96A2-A306254D1998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{058F76E2-B485-45AF-B387-E50455FA98F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3F5DF707-9BF2-401F-A533-86864F220C2D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1FC69C7-5FDF-4DD9-86C4-6128AF378391}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="234">
   <si>
     <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2007 (Tasa respuesta: 18,98%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>86,59%</t>
   </si>
   <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
   </si>
   <si>
     <t>89,47%</t>
   </si>
   <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
   </si>
   <si>
     <t>88,57%</t>
   </si>
   <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>13,41%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
   </si>
   <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>72,82%</t>
   </si>
   <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
   </si>
   <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
   </si>
   <si>
     <t>76,04%</t>
   </si>
   <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
   </si>
   <si>
     <t>27,18%</t>
   </si>
   <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,538 +196,550 @@
     <t>65,26%</t>
   </si>
   <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
   </si>
   <si>
     <t>75,52%</t>
   </si>
   <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2012 (Tasa respuesta: 25,54%)</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2016 (Tasa respuesta: 24,33%)</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
     <t>64,3%</t>
   </si>
   <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
   </si>
   <si>
     <t>35,7%</t>
   </si>
   <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2012 (Tasa respuesta: 25,54%)</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2015 (Tasa respuesta: 24,33%)</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
     <t>51,92%</t>
   </si>
   <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
   </si>
   <si>
     <t>56,09%</t>
   </si>
   <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
   </si>
   <si>
     <t>54,37%</t>
   </si>
   <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
   </si>
   <si>
     <t>48,08%</t>
   </si>
   <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
   </si>
   <si>
     <t>43,91%</t>
   </si>
   <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
   </si>
   <si>
     <t>45,63%</t>
   </si>
   <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
   </si>
   <si>
     <t>66,84%</t>
   </si>
   <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
   </si>
   <si>
     <t>75,5%</t>
   </si>
   <si>
-    <t>72,87%</t>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
   </si>
   <si>
     <t>72,32%</t>
   </si>
   <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
   </si>
   <si>
     <t>33,16%</t>
   </si>
   <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
   </si>
   <si>
     <t>24,5%</t>
   </si>
   <si>
-    <t>27,13%</t>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
   </si>
   <si>
     <t>27,68%</t>
   </si>
   <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40E0050-7D38-410C-BC83-F501CB043541}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8D236C-570B-4EC3-BE5E-C0C5B15DBBEE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1890,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CCEE03-A53B-4E32-A956-6893492FDAC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72454159-9697-4152-97CC-2B0E225C8D0C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2515,7 +2527,7 @@
         <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,13 +2542,13 @@
         <v>144255</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>228</v>
@@ -2545,13 +2557,13 @@
         <v>245179</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>365</v>
@@ -2560,13 +2572,13 @@
         <v>389434</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,7 +2653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FCB972-7586-4098-A642-1D1306DB5EDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CBBD44-DA65-4CEB-96CC-227AA0A43C7D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2658,7 +2670,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2765,13 +2777,13 @@
         <v>145645</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>319</v>
@@ -2780,13 +2792,13 @@
         <v>363508</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>470</v>
@@ -2795,13 +2807,13 @@
         <v>509153</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2828,13 @@
         <v>32705</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>41</v>
@@ -2831,13 +2843,13 @@
         <v>44971</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>72</v>
@@ -2846,13 +2858,13 @@
         <v>77676</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2932,13 @@
         <v>222727</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>347</v>
@@ -2935,13 +2947,13 @@
         <v>373154</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>556</v>
@@ -2950,13 +2962,13 @@
         <v>595881</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2983,13 @@
         <v>128024</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>150</v>
@@ -2986,13 +2998,13 @@
         <v>158016</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>269</v>
@@ -3001,13 +3013,13 @@
         <v>286040</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3087,13 @@
         <v>51205</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -3090,13 +3102,13 @@
         <v>78619</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>122</v>
@@ -3105,13 +3117,13 @@
         <v>129824</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3138,13 @@
         <v>47414</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>59</v>
@@ -3141,13 +3153,13 @@
         <v>61537</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>103</v>
@@ -3156,13 +3168,13 @@
         <v>108951</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3242,13 @@
         <v>419577</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>742</v>
@@ -3245,13 +3257,13 @@
         <v>815281</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>1148</v>
@@ -3260,13 +3272,13 @@
         <v>1234857</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3293,13 @@
         <v>208143</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>250</v>
@@ -3296,13 +3308,13 @@
         <v>264524</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>444</v>
@@ -3311,13 +3323,13 @@
         <v>472667</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{058F76E2-B485-45AF-B387-E50455FA98F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D2896C9-8B84-43BD-A5A0-18B96ACEEB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1FC69C7-5FDF-4DD9-86C4-6128AF378391}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FA3AC85A-3B84-45F7-8FDC-8F7D8C1D58B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="232">
   <si>
     <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2007 (Tasa respuesta: 18,98%)</t>
   </si>
@@ -70,34 +70,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>86,59%</t>
   </si>
   <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
   </si>
   <si>
     <t>89,47%</t>
   </si>
   <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
   </si>
   <si>
     <t>88,57%</t>
   </si>
   <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>13,41%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
   </si>
   <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,25 +139,25 @@
     <t>72,82%</t>
   </si>
   <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
   </si>
   <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
   </si>
   <si>
     <t>76,04%</t>
   </si>
   <si>
-    <t>71,9%</t>
+    <t>71,91%</t>
   </si>
   <si>
     <t>79,67%</t>
@@ -166,19 +166,19 @@
     <t>27,18%</t>
   </si>
   <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
   </si>
   <si>
     <t>23,96%</t>
@@ -187,7 +187,7 @@
     <t>20,33%</t>
   </si>
   <si>
-    <t>28,1%</t>
+    <t>28,09%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,79 +196,73 @@
     <t>65,26%</t>
   </si>
   <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
+    <t>52,9%</t>
   </si>
   <si>
     <t>75,52%</t>
   </si>
   <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
   </si>
   <si>
     <t>71,37%</t>
   </si>
   <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
   </si>
   <si>
     <t>34,74%</t>
   </si>
   <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
+    <t>47,1%</t>
   </si>
   <si>
     <t>24,48%</t>
   </si>
   <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
   </si>
   <si>
     <t>28,63%</t>
   </si>
   <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
   </si>
   <si>
     <t>77,58%</t>
   </si>
   <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
   <si>
     <t>83,79%</t>
   </si>
   <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
   </si>
   <si>
     <t>81,55%</t>
   </si>
   <si>
-    <t>79,25%</t>
+    <t>79,53%</t>
   </si>
   <si>
     <t>83,62%</t>
@@ -277,19 +271,19 @@
     <t>22,42%</t>
   </si>
   <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
   </si>
   <si>
     <t>18,45%</t>
@@ -298,7 +292,7 @@
     <t>16,38%</t>
   </si>
   <si>
-    <t>20,75%</t>
+    <t>20,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -313,31 +307,31 @@
     <t>82,22%</t>
   </si>
   <si>
-    <t>90,98%</t>
+    <t>91,07%</t>
   </si>
   <si>
     <t>89,33%</t>
   </si>
   <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>88,64%</t>
   </si>
   <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>9,02%</t>
+    <t>8,93%</t>
   </si>
   <si>
     <t>17,78%</t>
@@ -346,181 +340,181 @@
     <t>10,67%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
   </si>
   <si>
     <t>11,36%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
   </si>
   <si>
     <t>70,23%</t>
   </si>
   <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
   </si>
   <si>
     <t>73,26%</t>
   </si>
   <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
   </si>
   <si>
     <t>72,11%</t>
   </si>
   <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
   </si>
   <si>
     <t>29,77%</t>
   </si>
   <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
   </si>
   <si>
     <t>26,74%</t>
   </si>
   <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
   </si>
   <si>
     <t>27,89%</t>
   </si>
   <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
   </si>
   <si>
     <t>61,95%</t>
   </si>
   <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
   </si>
   <si>
     <t>60,22%</t>
   </si>
   <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
   </si>
   <si>
     <t>60,72%</t>
   </si>
   <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
   </si>
   <si>
     <t>38,05%</t>
   </si>
   <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
   </si>
   <si>
     <t>39,78%</t>
   </si>
   <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
   </si>
   <si>
     <t>39,28%</t>
   </si>
   <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
   </si>
   <si>
     <t>76,23%</t>
   </si>
   <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
   </si>
   <si>
     <t>79,31%</t>
   </si>
   <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
   </si>
   <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
   </si>
   <si>
     <t>23,77%</t>
   </si>
   <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
   </si>
   <si>
     <t>20,69%</t>
   </si>
   <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
   </si>
   <si>
     <t>21,74%</t>
   </si>
   <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
   </si>
   <si>
     <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2016 (Tasa respuesta: 24,33%)</t>
@@ -529,217 +523,217 @@
     <t>81,66%</t>
   </si>
   <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
   </si>
   <si>
     <t>88,99%</t>
   </si>
   <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
   </si>
   <si>
     <t>86,76%</t>
   </si>
   <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
   </si>
   <si>
     <t>18,34%</t>
   </si>
   <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
   </si>
   <si>
     <t>11,01%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
   </si>
   <si>
     <t>13,24%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
   </si>
   <si>
     <t>63,5%</t>
   </si>
   <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
   </si>
   <si>
     <t>70,25%</t>
   </si>
   <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
   </si>
   <si>
     <t>67,57%</t>
   </si>
   <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
   </si>
   <si>
     <t>36,5%</t>
   </si>
   <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
   </si>
   <si>
     <t>29,75%</t>
   </si>
   <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
   </si>
   <si>
     <t>32,43%</t>
   </si>
   <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
   </si>
   <si>
     <t>51,92%</t>
   </si>
   <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
   </si>
   <si>
     <t>56,09%</t>
   </si>
   <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
   </si>
   <si>
     <t>54,37%</t>
   </si>
   <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
   </si>
   <si>
     <t>48,08%</t>
   </si>
   <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
   </si>
   <si>
     <t>43,91%</t>
   </si>
   <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
   </si>
   <si>
     <t>45,63%</t>
   </si>
   <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
   </si>
   <si>
     <t>66,84%</t>
   </si>
   <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
   </si>
   <si>
     <t>75,5%</t>
   </si>
   <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
   </si>
   <si>
     <t>72,32%</t>
   </si>
   <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
   </si>
   <si>
     <t>33,16%</t>
   </si>
   <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
   </si>
   <si>
     <t>24,5%</t>
   </si>
   <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
   </si>
   <si>
     <t>27,68%</t>
   </si>
   <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8D236C-570B-4EC3-BE5E-C0C5B15DBBEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD72B01C-F753-4FE6-A646-0927D8EC7C43}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1591,7 +1585,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -1600,13 +1594,13 @@
         <v>68850</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -1615,13 +1609,13 @@
         <v>109250</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1636,13 +1630,13 @@
         <v>21509</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -1651,13 +1645,13 @@
         <v>22320</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>44</v>
@@ -1666,13 +1660,13 @@
         <v>43828</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1740,13 +1734,13 @@
         <v>349926</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>650</v>
@@ -1755,28 +1749,28 @@
         <v>670954</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1008</v>
       </c>
       <c r="N13" s="7">
-        <v>1020880</v>
+        <v>1020879</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1791,13 +1785,13 @@
         <v>101108</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>127</v>
@@ -1806,13 +1800,13 @@
         <v>129804</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>228</v>
@@ -1821,13 +1815,13 @@
         <v>230912</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1869,7 +1863,7 @@
         <v>1236</v>
       </c>
       <c r="N15" s="7">
-        <v>1251792</v>
+        <v>1251791</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1883,7 +1877,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1902,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72454159-9697-4152-97CC-2B0E225C8D0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E263111B-A298-4C26-ABB0-AF2266543F63}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1919,7 +1913,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2026,13 +2020,13 @@
         <v>209506</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>455</v>
@@ -2041,13 +2035,13 @@
         <v>487190</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>647</v>
@@ -2056,13 +2050,13 @@
         <v>696696</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,13 +2071,13 @@
         <v>31140</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>54</v>
@@ -2092,13 +2086,13 @@
         <v>58183</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>84</v>
@@ -2107,13 +2101,13 @@
         <v>89323</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,13 +2175,13 @@
         <v>222232</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>347</v>
@@ -2196,13 +2190,13 @@
         <v>378515</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>554</v>
@@ -2211,13 +2205,13 @@
         <v>600747</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,13 +2226,13 @@
         <v>94200</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>130</v>
@@ -2247,13 +2241,13 @@
         <v>138170</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>218</v>
@@ -2262,13 +2256,13 @@
         <v>232370</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,13 +2330,13 @@
         <v>30788</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
@@ -2351,13 +2345,13 @@
         <v>73918</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -2366,13 +2360,13 @@
         <v>104706</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,13 +2381,13 @@
         <v>18914</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -2402,13 +2396,13 @@
         <v>48827</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -2417,13 +2411,13 @@
         <v>67741</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,13 +2485,13 @@
         <v>462526</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>867</v>
@@ -2506,13 +2500,13 @@
         <v>939624</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1294</v>
@@ -2521,13 +2515,13 @@
         <v>1402149</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,13 +2536,13 @@
         <v>144255</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>228</v>
@@ -2557,13 +2551,13 @@
         <v>245179</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>365</v>
@@ -2572,13 +2566,13 @@
         <v>389434</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,7 +2628,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2653,7 +2647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CBBD44-DA65-4CEB-96CC-227AA0A43C7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B175B3-D5BD-4A02-99F4-3FD22E1E5610}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2670,7 +2664,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2777,13 +2771,13 @@
         <v>145645</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>319</v>
@@ -2792,13 +2786,13 @@
         <v>363508</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>470</v>
@@ -2807,13 +2801,13 @@
         <v>509153</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2822,13 @@
         <v>32705</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>41</v>
@@ -2843,13 +2837,13 @@
         <v>44971</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>72</v>
@@ -2858,13 +2852,13 @@
         <v>77676</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2926,13 @@
         <v>222727</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>347</v>
@@ -2947,13 +2941,13 @@
         <v>373154</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>556</v>
@@ -2962,13 +2956,13 @@
         <v>595881</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +2977,13 @@
         <v>128024</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>150</v>
@@ -2998,13 +2992,13 @@
         <v>158016</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>269</v>
@@ -3013,13 +3007,13 @@
         <v>286040</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3081,13 @@
         <v>51205</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -3102,13 +3096,13 @@
         <v>78619</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>122</v>
@@ -3117,13 +3111,13 @@
         <v>129824</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3132,13 @@
         <v>47414</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>59</v>
@@ -3153,13 +3147,13 @@
         <v>61537</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>103</v>
@@ -3168,13 +3162,13 @@
         <v>108951</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3236,13 @@
         <v>419577</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>742</v>
@@ -3257,13 +3251,13 @@
         <v>815281</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>1148</v>
@@ -3272,13 +3266,13 @@
         <v>1234857</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3287,13 @@
         <v>208143</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>250</v>
@@ -3308,13 +3302,13 @@
         <v>264524</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>444</v>
@@ -3323,13 +3317,13 @@
         <v>472667</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,7 +3379,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D2896C9-8B84-43BD-A5A0-18B96ACEEB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D628B650-B111-4075-B76F-853DCC46B284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FA3AC85A-3B84-45F7-8FDC-8F7D8C1D58B1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E375C04D-0878-4008-912D-B9723832A46D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1145,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD72B01C-F753-4FE6-A646-0927D8EC7C43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6805A9A8-D2EC-41E6-B633-CC398C4F19A4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1896,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E263111B-A298-4C26-ABB0-AF2266543F63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323DB8F9-E854-46D1-817E-56E8124694C3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2647,7 +2647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B175B3-D5BD-4A02-99F4-3FD22E1E5610}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A224D54D-801B-4FB6-8A01-DAC9B7A16EE0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3263,7 +3263,7 @@
         <v>1148</v>
       </c>
       <c r="N13" s="7">
-        <v>1234857</v>
+        <v>1234858</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>220</v>
@@ -3365,7 +3365,7 @@
         <v>1592</v>
       </c>
       <c r="N15" s="7">
-        <v>1707524</v>
+        <v>1707525</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16B02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B02-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2007</t>
+          <t>Población cuyas medicinas para el dolor/bajar la fiebre fueron recetadas en 2007</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2012</t>
+          <t>Población cuyas medicinas para el dolor/bajar la fiebre fueron recetadas en 2012</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2016</t>
+          <t>Población cuyas medicinas para el dolor/bajar la fiebre fueron recetadas en 2016</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
